--- a/out/production/finalProject/Project/Data.xlsx
+++ b/out/production/finalProject/Project/Data.xlsx
@@ -1,19 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10409"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ricardo/MEU/Programming Paradigms/finalProject/Project/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C491169E-B972-8F4C-880F-21C83BA91659}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr documentId="13_ncr:1_{F4479CBB-BF22-8249-9754-7428081E10B4}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="19520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowHeight="19520" windowWidth="16800" xWindow="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}" yWindow="500"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" r:id="rId1" sheetId="1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="306" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="526" uniqueCount="198">
   <si>
     <t>player_id</t>
   </si>
@@ -50,6 +50,9 @@
     <t>Raiders</t>
   </si>
   <si>
+    <t>fa47</t>
+  </si>
+  <si>
     <t>1fc0</t>
   </si>
   <si>
@@ -140,6 +143,21 @@
     <t>Von Miller</t>
   </si>
   <si>
+    <t>fa79</t>
+  </si>
+  <si>
+    <t>Denzelle Good</t>
+  </si>
+  <si>
+    <t>ac32</t>
+  </si>
+  <si>
+    <t>Bradley Chubb</t>
+  </si>
+  <si>
+    <t>5986</t>
+  </si>
+  <si>
     <t>bbcb</t>
   </si>
   <si>
@@ -167,6 +185,12 @@
     <t>5f5c</t>
   </si>
   <si>
+    <t>Brandon Parker</t>
+  </si>
+  <si>
+    <t>b902</t>
+  </si>
+  <si>
     <t>b468</t>
   </si>
   <si>
@@ -185,6 +209,18 @@
     <t>9c2e</t>
   </si>
   <si>
+    <t>TJ Clemmings</t>
+  </si>
+  <si>
+    <t>13b4</t>
+  </si>
+  <si>
+    <t>Chaz Green</t>
+  </si>
+  <si>
+    <t>5574</t>
+  </si>
+  <si>
     <t>Akiem Hicks</t>
   </si>
   <si>
@@ -194,6 +230,9 @@
     <t>Derek Wolfe</t>
   </si>
   <si>
+    <t>1d46</t>
+  </si>
+  <si>
     <t>Dekoda Watson</t>
   </si>
   <si>
@@ -230,12 +269,21 @@
     <t>1cf0</t>
   </si>
   <si>
+    <t>2389</t>
+  </si>
+  <si>
     <t>Zack Martin</t>
   </si>
   <si>
     <t>0946</t>
   </si>
   <si>
+    <t>Rashaad Coward</t>
+  </si>
+  <si>
+    <t>ad72</t>
+  </si>
+  <si>
     <t>Shelby Harris</t>
   </si>
   <si>
@@ -254,6 +302,9 @@
     <t>Eddie Goldman</t>
   </si>
   <si>
+    <t>6b1b</t>
+  </si>
+  <si>
     <t>Justin Hollins</t>
   </si>
   <si>
@@ -269,6 +320,18 @@
     <t>8109</t>
   </si>
   <si>
+    <t>Gabe Jackson</t>
+  </si>
+  <si>
+    <t>19de</t>
+  </si>
+  <si>
+    <t>Andre James</t>
+  </si>
+  <si>
+    <t>1280</t>
+  </si>
+  <si>
     <t>Josh Mauro</t>
   </si>
   <si>
@@ -287,6 +350,12 @@
     <t>776c</t>
   </si>
   <si>
+    <t>Nigel Bradham</t>
+  </si>
+  <si>
+    <t>c143</t>
+  </si>
+  <si>
     <t>Justin Ellis</t>
   </si>
   <si>
@@ -305,9 +374,36 @@
     <t>da35</t>
   </si>
   <si>
+    <t>Kylie Fitts</t>
+  </si>
+  <si>
+    <t>d874</t>
+  </si>
+  <si>
+    <t>Zach Ertz</t>
+  </si>
+  <si>
+    <t>c0e7</t>
+  </si>
+  <si>
+    <t>Trey Burton</t>
+  </si>
+  <si>
+    <t>cca4</t>
+  </si>
+  <si>
+    <t>Tyrone Crawford</t>
+  </si>
+  <si>
+    <t>6c4a</t>
+  </si>
+  <si>
     <t>Robert Quinn</t>
   </si>
   <si>
+    <t>7072</t>
+  </si>
+  <si>
     <t>Clelin Ferrell</t>
   </si>
   <si>
@@ -317,6 +413,27 @@
     <t>c1b0</t>
   </si>
   <si>
+    <t>8fc1</t>
+  </si>
+  <si>
+    <t>Brandon Brooks</t>
+  </si>
+  <si>
+    <t>994b</t>
+  </si>
+  <si>
+    <t>Kyle Long</t>
+  </si>
+  <si>
+    <t>8683</t>
+  </si>
+  <si>
+    <t>Travis Frederick</t>
+  </si>
+  <si>
+    <t>89d1</t>
+  </si>
+  <si>
     <t>Rodney Hudson</t>
   </si>
   <si>
@@ -329,6 +446,45 @@
     <t>aa61</t>
   </si>
   <si>
+    <t>Billy Winn</t>
+  </si>
+  <si>
+    <t>0b19</t>
+  </si>
+  <si>
+    <t>Dre’Mont Jones</t>
+  </si>
+  <si>
+    <t>7014</t>
+  </si>
+  <si>
+    <t>Nicholas Williams</t>
+  </si>
+  <si>
+    <t>6a35</t>
+  </si>
+  <si>
+    <t>Jonathan Bullard</t>
+  </si>
+  <si>
+    <t>3986</t>
+  </si>
+  <si>
+    <t>b5b9</t>
+  </si>
+  <si>
+    <t>a40c</t>
+  </si>
+  <si>
+    <t>Danny Trevathan</t>
+  </si>
+  <si>
+    <t>e594</t>
+  </si>
+  <si>
+    <t>ddc1</t>
+  </si>
+  <si>
     <t>Tahir Whitehead</t>
   </si>
   <si>
@@ -338,6 +494,27 @@
     <t>ccd7</t>
   </si>
   <si>
+    <t>9970</t>
+  </si>
+  <si>
+    <t>Ronald Leary</t>
+  </si>
+  <si>
+    <t>bd8f</t>
+  </si>
+  <si>
+    <t>Isaac Seumalo</t>
+  </si>
+  <si>
+    <t>8718</t>
+  </si>
+  <si>
+    <t>Aaron Wallace</t>
+  </si>
+  <si>
+    <t>b291</t>
+  </si>
+  <si>
     <t>Isaiah Irving</t>
   </si>
   <si>
@@ -365,6 +542,12 @@
     <t>e2b3</t>
   </si>
   <si>
+    <t>Quinn Bailey</t>
+  </si>
+  <si>
+    <t>1a6d</t>
+  </si>
+  <si>
     <t>Derrick Puni</t>
   </si>
   <si>
@@ -377,6 +560,9 @@
     <t>abd3</t>
   </si>
   <si>
+    <t>446c</t>
+  </si>
+  <si>
     <t>Devon Kennard</t>
   </si>
   <si>
@@ -401,6 +587,24 @@
     <t>2963</t>
   </si>
   <si>
+    <t>Ahmad Gooden</t>
+  </si>
+  <si>
+    <t>ffff</t>
+  </si>
+  <si>
+    <t>Jesse James</t>
+  </si>
+  <si>
+    <t>3a37</t>
+  </si>
+  <si>
+    <t>T.J. Hockenson</t>
+  </si>
+  <si>
+    <t>16bf</t>
+  </si>
+  <si>
     <t>Charles Leno, Jr.</t>
   </si>
   <si>
@@ -414,6 +618,15 @@
   </si>
   <si>
     <t>salary</t>
+  </si>
+  <si>
+    <t>tet</t>
+  </si>
+  <si>
+    <t>te</t>
+  </si>
+  <si>
+    <t>te23</t>
   </si>
 </sst>
 </file>
@@ -477,23 +690,23 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="4">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="6" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="6" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -510,10 +723,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -669,7 +882,7 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="9525">
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="95000"/>
@@ -678,13 +891,13 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="25400">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="38100">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -694,7 +907,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dir="5400000" dist="20000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -703,7 +916,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dir="5400000" dist="23000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -712,7 +925,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dir="5400000" dist="23000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -722,12 +935,12 @@
             <a:camera prst="orthographicFront">
               <a:rot lat="0" lon="0" rev="0"/>
             </a:camera>
-            <a:lightRig rig="threePt" dir="t">
+            <a:lightRig dir="t" rig="threePt">
               <a:rot lat="0" lon="0" rev="1200000"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
-            <a:bevelT w="63500" h="25400"/>
+            <a:bevelT h="25400" w="63500"/>
           </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
@@ -758,7 +971,7 @@
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
-            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+            <a:fillToRect b="180000" l="50000" r="50000" t="-80000"/>
           </a:path>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
@@ -777,7 +990,7 @@
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
-            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+            <a:fillToRect b="50000" l="50000" r="50000" t="50000"/>
           </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
@@ -789,21 +1002,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F61"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:G105"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" zoomScale="200" workbookViewId="0">
-      <selection activeCell="C64" sqref="C64"/>
+    <sheetView tabSelected="1" topLeftCell="A95" workbookViewId="0" zoomScale="200">
+      <selection activeCell="A102" sqref="A102:F102"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="7.5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="10.33203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="10.6640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="8.33203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="16.33203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="11.83203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="7.5" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="10.33203125" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="10.6640625" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="8.33203125" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="16.33203125" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="11.83203125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
@@ -811,7 +1024,7 @@
         <v>1</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>125</v>
+        <v>193</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>2</v>
@@ -820,147 +1033,147 @@
         <v>0</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>124</v>
+        <v>192</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>126</v>
+        <v>194</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C2" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="D2" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="E2" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="F2" s="3">
-        <v>12750000</v>
+        <v>16500000</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B3" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C3" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="D3" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E3" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="F3" s="3">
-        <v>11250000</v>
+        <v>12750000</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="B4" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C4" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="D4" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="E4" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="F4" s="3">
-        <v>9500000</v>
+        <v>11250000</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B5" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="C5" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="D5" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E5" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="F5" s="3">
-        <v>8000000</v>
+        <v>9500000</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B6" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="D6" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="E6" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="F6" s="3">
-        <v>7700000</v>
+        <v>8000000</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="C7" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="D7" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="E7" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="F7" s="3">
-        <v>23500000</v>
+        <v>7700000</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E8" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F8" s="3">
         <v>23500000</v>
@@ -968,133 +1181,133 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>30</v>
+        <v>11</v>
       </c>
       <c r="B9" t="s">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="C9" t="s">
-        <v>31</v>
+        <v>12</v>
       </c>
       <c r="D9" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E9" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F9" s="3">
-        <v>21000000</v>
+        <v>19083333</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="B10" t="s">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="C10" t="s">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="D10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E10" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F10" s="3">
-        <v>18000000</v>
+        <v>1800000</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C11" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="D11" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E11" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F11" s="3">
-        <v>17100000</v>
+        <v>6817810</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C12" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D12" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E12" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="F12" s="3">
-        <v>3945748</v>
+        <v>23500000</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>10</v>
+        <v>31</v>
       </c>
       <c r="B13" t="s">
-        <v>8</v>
+        <v>29</v>
       </c>
       <c r="C13" t="s">
-        <v>11</v>
+        <v>32</v>
       </c>
       <c r="D13" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E13" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="F13" s="3">
-        <v>19083333</v>
+        <v>21000000</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="B14" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="C14" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="D14" t="s">
         <v>45</v>
       </c>
       <c r="E14" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="F14" s="3">
-        <v>17100000</v>
+        <v>18000000</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="B15" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C15" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="D15" t="s">
         <v>47</v>
@@ -1103,124 +1316,124 @@
         <v>46</v>
       </c>
       <c r="F15" s="3">
-        <v>3400000</v>
+        <v>17100000</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B16" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="C16" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="D16" t="s">
+        <v>49</v>
+      </c>
+      <c r="E16" t="s">
         <v>48</v>
       </c>
-      <c r="E16" t="s">
-        <v>36</v>
-      </c>
       <c r="F16" s="3">
-        <v>21000000</v>
+        <v>3945748</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>25</v>
+        <v>6</v>
       </c>
       <c r="B17" t="s">
-        <v>23</v>
+        <v>4</v>
       </c>
       <c r="C17" t="s">
-        <v>26</v>
+        <v>7</v>
       </c>
       <c r="D17" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="E17" t="s">
-        <v>32</v>
+        <v>50</v>
       </c>
       <c r="F17" s="3">
-        <v>23500000</v>
+        <v>1023834</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="B18" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="C18" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="D18" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E18" t="s">
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="F18" s="3">
-        <v>12000000</v>
+        <v>19083333</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="B19" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="C19" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="D19" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E19" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="F19" s="3">
-        <v>1666667</v>
+        <v>17100000</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B20" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C20" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D20" t="s">
         <v>55</v>
       </c>
       <c r="E20" t="s">
-        <v>38</v>
+        <v>54</v>
       </c>
       <c r="F20" s="3">
-        <v>18000000</v>
+        <v>3400000</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C21" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D21" t="s">
         <v>56</v>
       </c>
       <c r="E21" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="F21" s="3">
         <v>21000000</v>
@@ -1228,805 +1441,1685 @@
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="B22" t="s">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="C22" t="s">
-        <v>11</v>
+        <v>27</v>
       </c>
       <c r="D22" t="s">
         <v>57</v>
       </c>
       <c r="E22" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F22" s="3">
-        <v>19083333</v>
+        <v>23500000</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="B23" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="C23" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="D23" t="s">
+        <v>59</v>
+      </c>
+      <c r="E23" t="s">
         <v>58</v>
       </c>
-      <c r="E23" t="s">
-        <v>38</v>
-      </c>
       <c r="F23" s="3">
-        <v>18000000</v>
+        <v>805000</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B24" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C24" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="D24" t="s">
+        <v>61</v>
+      </c>
+      <c r="E24" t="s">
         <v>60</v>
       </c>
-      <c r="E24" t="s">
-        <v>59</v>
-      </c>
       <c r="F24" s="3">
-        <v>10000000</v>
+        <v>805000</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="B25" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="C25" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="D25" t="s">
+        <v>63</v>
+      </c>
+      <c r="E25" t="s">
         <v>62</v>
       </c>
-      <c r="E25" t="s">
-        <v>61</v>
-      </c>
       <c r="F25" s="3">
-        <v>9250000</v>
+        <v>12000000</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B26" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C26" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="D26" t="s">
+        <v>65</v>
+      </c>
+      <c r="E26" t="s">
         <v>64</v>
       </c>
-      <c r="E26" t="s">
-        <v>63</v>
-      </c>
       <c r="F26" s="3">
-        <v>13333333</v>
+        <v>9175000</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>30</v>
+        <v>11</v>
       </c>
       <c r="B27" t="s">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="C27" t="s">
-        <v>31</v>
+        <v>12</v>
       </c>
       <c r="D27" t="s">
+        <v>67</v>
+      </c>
+      <c r="E27" t="s">
         <v>66</v>
       </c>
-      <c r="E27" t="s">
-        <v>65</v>
-      </c>
       <c r="F27" s="3">
-        <v>14000000</v>
+        <v>1666667</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="B28" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="C28" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="D28" t="s">
         <v>68</v>
       </c>
       <c r="E28" t="s">
-        <v>67</v>
+        <v>44</v>
       </c>
       <c r="F28" s="3">
-        <v>3095000</v>
+        <v>18000000</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>10</v>
+        <v>31</v>
       </c>
       <c r="B29" t="s">
-        <v>8</v>
+        <v>29</v>
       </c>
       <c r="C29" t="s">
-        <v>11</v>
+        <v>32</v>
       </c>
       <c r="D29" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E29" t="s">
-        <v>69</v>
+        <v>42</v>
       </c>
       <c r="F29" s="3">
-        <v>2500000</v>
+        <v>21000000</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B30" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C30" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="D30" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E30" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="F30" s="3">
-        <v>17100000</v>
+        <v>19083333</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="B31" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="C31" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="D31" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="E31" t="s">
-        <v>73</v>
+        <v>44</v>
       </c>
       <c r="F31" s="3">
-        <v>706724</v>
+        <v>18000000</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B32" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C32" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D32" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E32" t="s">
-        <v>63</v>
+        <v>72</v>
       </c>
       <c r="F32" s="3">
-        <v>13333333</v>
+        <v>10000000</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="B33" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="C33" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="D33" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E33" t="s">
-        <v>63</v>
+        <v>74</v>
       </c>
       <c r="F33" s="3">
-        <v>13333333</v>
+        <v>9250000</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="B34" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="C34" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="D34" t="s">
         <v>77</v>
       </c>
       <c r="E34" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="F34" s="3">
-        <v>10510000</v>
+        <v>13333333</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>5</v>
+        <v>26</v>
       </c>
       <c r="B35" t="s">
-        <v>4</v>
+        <v>24</v>
       </c>
       <c r="C35" t="s">
-        <v>6</v>
+        <v>27</v>
       </c>
       <c r="D35" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E35" t="s">
-        <v>78</v>
+        <v>62</v>
       </c>
       <c r="F35" s="3">
-        <v>1400000</v>
+        <v>12000000</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>10</v>
+        <v>31</v>
       </c>
       <c r="B36" t="s">
-        <v>8</v>
+        <v>29</v>
       </c>
       <c r="C36" t="s">
-        <v>11</v>
+        <v>32</v>
       </c>
       <c r="D36" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E36" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F36" s="3">
-        <v>1268463</v>
+        <v>14000000</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="B37" t="s">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="C37" t="s">
-        <v>11</v>
+        <v>27</v>
       </c>
       <c r="D37" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E37" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F37" s="3">
-        <v>984476</v>
+        <v>645000</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B38" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C38" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="D38" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E38" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F38" s="3">
-        <v>4500000</v>
+        <v>3095000</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B39" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C39" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="D39" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E39" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F39" s="3">
-        <v>4250000</v>
+        <v>2500000</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B40" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C40" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D40" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E40" t="s">
-        <v>59</v>
+        <v>46</v>
       </c>
       <c r="F40" s="3">
-        <v>10000000</v>
+        <v>17100000</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="B41" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="C41" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="D41" t="s">
         <v>89</v>
       </c>
       <c r="E41" t="s">
-        <v>61</v>
+        <v>88</v>
       </c>
       <c r="F41" s="3">
-        <v>9250000</v>
+        <v>10510000</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B42" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C42" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="D42" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E42" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F42" s="3">
-        <v>7840206</v>
+        <v>706724</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="B43" t="s">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="C43" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="D43" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E43" t="s">
-        <v>3</v>
+        <v>76</v>
       </c>
       <c r="F43" s="3">
-        <v>16500000</v>
+        <v>13333333</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="B44" t="s">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="C44" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="D44" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E44" t="s">
-        <v>94</v>
+        <v>76</v>
       </c>
       <c r="F44" s="3">
-        <v>8900000</v>
+        <v>13333333</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>5</v>
+        <v>26</v>
       </c>
       <c r="B45" t="s">
-        <v>4</v>
+        <v>24</v>
       </c>
       <c r="C45" t="s">
-        <v>6</v>
+        <v>27</v>
       </c>
       <c r="D45" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="E45" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="F45" s="3">
-        <v>586667</v>
+        <v>10510000</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B46" t="s">
         <v>4</v>
       </c>
       <c r="C46" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D46" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="E46" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="F46" s="3">
-        <v>6333333</v>
+        <v>11000000</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B47" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C47" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="D47" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="E47" t="s">
-        <v>52</v>
+        <v>97</v>
       </c>
       <c r="F47" s="3">
-        <v>9175000</v>
+        <v>588333</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>25</v>
+        <v>6</v>
       </c>
       <c r="B48" t="s">
-        <v>23</v>
+        <v>4</v>
       </c>
       <c r="C48" t="s">
-        <v>26</v>
+        <v>7</v>
       </c>
       <c r="D48" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="E48" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="F48" s="3">
-        <v>645000</v>
+        <v>1400000</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>30</v>
+        <v>11</v>
       </c>
       <c r="B49" t="s">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="C49" t="s">
-        <v>31</v>
+        <v>12</v>
       </c>
       <c r="D49" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="E49" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="F49" s="3">
-        <v>12200000</v>
+        <v>1268463</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>30</v>
+        <v>11</v>
       </c>
       <c r="B50" t="s">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="C50" t="s">
-        <v>31</v>
+        <v>12</v>
       </c>
       <c r="D50" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E50" t="s">
-        <v>65</v>
+        <v>103</v>
       </c>
       <c r="F50" s="3">
-        <v>14000000</v>
+        <v>984476</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="B51" t="s">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="C51" t="s">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="D51" t="s">
         <v>106</v>
       </c>
       <c r="E51" t="s">
-        <v>90</v>
+        <v>105</v>
       </c>
       <c r="F51" s="3">
-        <v>8000000</v>
+        <v>7750000</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B52" t="s">
         <v>4</v>
       </c>
       <c r="C52" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D52" t="s">
+        <v>108</v>
+      </c>
+      <c r="E52" t="s">
         <v>107</v>
       </c>
-      <c r="E52" t="s">
-        <v>91</v>
-      </c>
       <c r="F52" s="3">
-        <v>7840206</v>
+        <v>4500000</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="B53" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="C53" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="D53" t="s">
+        <v>110</v>
+      </c>
+      <c r="E53" t="s">
         <v>109</v>
       </c>
-      <c r="E53" t="s">
-        <v>108</v>
-      </c>
       <c r="F53" s="3">
-        <v>8166667</v>
+        <v>4250000</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="B54" t="s">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="C54" t="s">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="D54" t="s">
         <v>111</v>
       </c>
       <c r="E54" t="s">
-        <v>110</v>
+        <v>72</v>
       </c>
       <c r="F54" s="3">
-        <v>586000</v>
+        <v>10000000</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B55" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C55" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D55" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E55" t="s">
-        <v>112</v>
+        <v>74</v>
       </c>
       <c r="F55" s="3">
-        <v>585000</v>
+        <v>9250000</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="B56" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="C56" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="D56" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E56" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F56" s="3">
-        <v>5750000</v>
+        <v>657975</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="B57" t="s">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="C57" t="s">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="D57" t="s">
         <v>116</v>
       </c>
       <c r="E57" t="s">
-        <v>90</v>
+        <v>115</v>
       </c>
       <c r="F57" s="3">
-        <v>8000000</v>
+        <v>8500000</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>5</v>
+        <v>26</v>
       </c>
       <c r="B58" t="s">
-        <v>4</v>
+        <v>24</v>
       </c>
       <c r="C58" t="s">
-        <v>6</v>
+        <v>27</v>
       </c>
       <c r="D58" t="s">
+        <v>118</v>
+      </c>
+      <c r="E58" t="s">
         <v>117</v>
       </c>
-      <c r="E58" t="s">
-        <v>91</v>
-      </c>
       <c r="F58" s="3">
-        <v>7840206</v>
+        <v>8000000</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="B59" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="C59" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="D59" t="s">
+        <v>120</v>
+      </c>
+      <c r="E59" t="s">
         <v>119</v>
       </c>
-      <c r="E59" t="s">
-        <v>118</v>
-      </c>
       <c r="F59" s="3">
-        <v>2945035</v>
+        <v>9000000</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="B60" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="C60" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="D60" t="s">
+        <v>122</v>
+      </c>
+      <c r="E60" t="s">
         <v>121</v>
       </c>
-      <c r="E60" t="s">
-        <v>120</v>
-      </c>
       <c r="F60" s="3">
-        <v>588333</v>
+        <v>8000000</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>25</v>
+        <v>6</v>
       </c>
       <c r="B61" t="s">
-        <v>23</v>
+        <v>4</v>
       </c>
       <c r="C61" t="s">
+        <v>7</v>
+      </c>
+      <c r="D61" t="s">
+        <v>124</v>
+      </c>
+      <c r="E61" t="s">
+        <v>123</v>
+      </c>
+      <c r="F61" s="3">
+        <v>7840206</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A62" t="s">
+        <v>6</v>
+      </c>
+      <c r="B62" t="s">
+        <v>4</v>
+      </c>
+      <c r="C62" t="s">
+        <v>7</v>
+      </c>
+      <c r="D62" t="s">
+        <v>125</v>
+      </c>
+      <c r="E62" t="s">
+        <v>3</v>
+      </c>
+      <c r="F62" s="3">
+        <v>16500000</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A63" t="s">
+        <v>31</v>
+      </c>
+      <c r="B63" t="s">
+        <v>29</v>
+      </c>
+      <c r="C63" t="s">
+        <v>32</v>
+      </c>
+      <c r="D63" t="s">
+        <v>126</v>
+      </c>
+      <c r="E63" t="s">
+        <v>119</v>
+      </c>
+      <c r="F63" s="3">
+        <v>9000000</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A64" t="s">
+        <v>16</v>
+      </c>
+      <c r="B64" t="s">
+        <v>14</v>
+      </c>
+      <c r="C64" t="s">
+        <v>17</v>
+      </c>
+      <c r="D64" t="s">
+        <v>128</v>
+      </c>
+      <c r="E64" t="s">
+        <v>127</v>
+      </c>
+      <c r="F64" s="3">
+        <v>8000000</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A65" t="s">
         <v>26</v>
       </c>
-      <c r="D61" t="s">
+      <c r="B65" t="s">
+        <v>24</v>
+      </c>
+      <c r="C65" t="s">
+        <v>27</v>
+      </c>
+      <c r="D65" t="s">
+        <v>130</v>
+      </c>
+      <c r="E65" t="s">
+        <v>129</v>
+      </c>
+      <c r="F65" s="3">
+        <v>6100000</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A66" t="s">
+        <v>31</v>
+      </c>
+      <c r="B66" t="s">
+        <v>29</v>
+      </c>
+      <c r="C66" t="s">
+        <v>32</v>
+      </c>
+      <c r="D66" t="s">
+        <v>132</v>
+      </c>
+      <c r="E66" t="s">
+        <v>131</v>
+      </c>
+      <c r="F66" s="3">
+        <v>9400000</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A67" t="s">
+        <v>6</v>
+      </c>
+      <c r="B67" t="s">
+        <v>4</v>
+      </c>
+      <c r="C67" t="s">
+        <v>7</v>
+      </c>
+      <c r="D67" t="s">
+        <v>134</v>
+      </c>
+      <c r="E67" t="s">
+        <v>133</v>
+      </c>
+      <c r="F67" s="3">
+        <v>8900000</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A68" t="s">
+        <v>6</v>
+      </c>
+      <c r="B68" t="s">
+        <v>4</v>
+      </c>
+      <c r="C68" t="s">
+        <v>7</v>
+      </c>
+      <c r="D68" t="s">
+        <v>136</v>
+      </c>
+      <c r="E68" t="s">
+        <v>135</v>
+      </c>
+      <c r="F68" s="3">
+        <v>586667</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A69" t="s">
+        <v>11</v>
+      </c>
+      <c r="B69" t="s">
+        <v>9</v>
+      </c>
+      <c r="C69" t="s">
+        <v>12</v>
+      </c>
+      <c r="D69" t="s">
+        <v>138</v>
+      </c>
+      <c r="E69" t="s">
+        <v>137</v>
+      </c>
+      <c r="F69" s="3">
+        <v>912500</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A70" t="s">
+        <v>11</v>
+      </c>
+      <c r="B70" t="s">
+        <v>9</v>
+      </c>
+      <c r="C70" t="s">
+        <v>12</v>
+      </c>
+      <c r="D70" t="s">
+        <v>140</v>
+      </c>
+      <c r="E70" t="s">
+        <v>139</v>
+      </c>
+      <c r="F70" s="3">
+        <v>899109</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A71" t="s">
+        <v>26</v>
+      </c>
+      <c r="B71" t="s">
+        <v>24</v>
+      </c>
+      <c r="C71" t="s">
+        <v>27</v>
+      </c>
+      <c r="D71" t="s">
+        <v>142</v>
+      </c>
+      <c r="E71" t="s">
+        <v>141</v>
+      </c>
+      <c r="F71" s="3">
+        <v>895000</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A72" t="s">
+        <v>26</v>
+      </c>
+      <c r="B72" t="s">
+        <v>24</v>
+      </c>
+      <c r="C72" t="s">
+        <v>27</v>
+      </c>
+      <c r="D72" t="s">
+        <v>144</v>
+      </c>
+      <c r="E72" t="s">
+        <v>143</v>
+      </c>
+      <c r="F72" s="3">
+        <v>853380</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A73" t="s">
+        <v>26</v>
+      </c>
+      <c r="B73" t="s">
+        <v>24</v>
+      </c>
+      <c r="C73" t="s">
+        <v>27</v>
+      </c>
+      <c r="D73" t="s">
+        <v>145</v>
+      </c>
+      <c r="E73" t="s">
+        <v>62</v>
+      </c>
+      <c r="F73" s="3">
+        <v>12000000</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A74" t="s">
+        <v>26</v>
+      </c>
+      <c r="B74" t="s">
+        <v>24</v>
+      </c>
+      <c r="C74" t="s">
+        <v>27</v>
+      </c>
+      <c r="D74" t="s">
+        <v>146</v>
+      </c>
+      <c r="E74" t="s">
+        <v>88</v>
+      </c>
+      <c r="F74" s="3">
+        <v>10510000</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A75" t="s">
+        <v>26</v>
+      </c>
+      <c r="B75" t="s">
+        <v>24</v>
+      </c>
+      <c r="C75" t="s">
+        <v>27</v>
+      </c>
+      <c r="D75" t="s">
+        <v>148</v>
+      </c>
+      <c r="E75" t="s">
+        <v>147</v>
+      </c>
+      <c r="F75" s="3">
+        <v>7000000</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A76" t="s">
+        <v>11</v>
+      </c>
+      <c r="B76" t="s">
+        <v>9</v>
+      </c>
+      <c r="C76" t="s">
+        <v>12</v>
+      </c>
+      <c r="D76" t="s">
+        <v>149</v>
+      </c>
+      <c r="E76" t="s">
+        <v>39</v>
+      </c>
+      <c r="F76" s="3">
+        <v>6817810</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A77" t="s">
+        <v>6</v>
+      </c>
+      <c r="B77" t="s">
+        <v>4</v>
+      </c>
+      <c r="C77" t="s">
+        <v>7</v>
+      </c>
+      <c r="D77" t="s">
+        <v>151</v>
+      </c>
+      <c r="E77" t="s">
+        <v>150</v>
+      </c>
+      <c r="F77" s="3">
+        <v>6333333</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A78" t="s">
+        <v>11</v>
+      </c>
+      <c r="B78" t="s">
+        <v>9</v>
+      </c>
+      <c r="C78" t="s">
+        <v>12</v>
+      </c>
+      <c r="D78" t="s">
+        <v>152</v>
+      </c>
+      <c r="E78" t="s">
+        <v>64</v>
+      </c>
+      <c r="F78" s="3">
+        <v>9175000</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A79" t="s">
+        <v>31</v>
+      </c>
+      <c r="B79" t="s">
+        <v>29</v>
+      </c>
+      <c r="C79" t="s">
+        <v>32</v>
+      </c>
+      <c r="D79" t="s">
+        <v>153</v>
+      </c>
+      <c r="E79" t="s">
+        <v>119</v>
+      </c>
+      <c r="F79" s="3">
+        <v>9000000</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A80" t="s">
+        <v>11</v>
+      </c>
+      <c r="B80" t="s">
+        <v>9</v>
+      </c>
+      <c r="C80" t="s">
+        <v>12</v>
+      </c>
+      <c r="D80" t="s">
+        <v>155</v>
+      </c>
+      <c r="E80" t="s">
+        <v>154</v>
+      </c>
+      <c r="F80" s="3">
+        <v>9000000</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A81" t="s">
+        <v>16</v>
+      </c>
+      <c r="B81" t="s">
+        <v>14</v>
+      </c>
+      <c r="C81" t="s">
+        <v>17</v>
+      </c>
+      <c r="D81" t="s">
+        <v>157</v>
+      </c>
+      <c r="E81" t="s">
+        <v>156</v>
+      </c>
+      <c r="F81" s="3">
+        <v>5626000</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A82" t="s">
+        <v>11</v>
+      </c>
+      <c r="B82" t="s">
+        <v>9</v>
+      </c>
+      <c r="C82" t="s">
+        <v>12</v>
+      </c>
+      <c r="D82" t="s">
+        <v>159</v>
+      </c>
+      <c r="E82" t="s">
+        <v>158</v>
+      </c>
+      <c r="F82" s="3">
+        <v>645000</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A83" t="s">
+        <v>26</v>
+      </c>
+      <c r="B83" t="s">
+        <v>24</v>
+      </c>
+      <c r="C83" t="s">
+        <v>27</v>
+      </c>
+      <c r="D83" t="s">
+        <v>161</v>
+      </c>
+      <c r="E83" t="s">
+        <v>160</v>
+      </c>
+      <c r="F83" s="3">
+        <v>645000</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A84" t="s">
+        <v>31</v>
+      </c>
+      <c r="B84" t="s">
+        <v>29</v>
+      </c>
+      <c r="C84" t="s">
+        <v>32</v>
+      </c>
+      <c r="D84" t="s">
+        <v>163</v>
+      </c>
+      <c r="E84" t="s">
+        <v>162</v>
+      </c>
+      <c r="F84" s="3">
+        <v>12200000</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A85" t="s">
+        <v>31</v>
+      </c>
+      <c r="B85" t="s">
+        <v>29</v>
+      </c>
+      <c r="C85" t="s">
+        <v>32</v>
+      </c>
+      <c r="D85" t="s">
+        <v>164</v>
+      </c>
+      <c r="E85" t="s">
+        <v>79</v>
+      </c>
+      <c r="F85" s="3">
+        <v>14000000</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A86" t="s">
+        <v>31</v>
+      </c>
+      <c r="B86" t="s">
+        <v>29</v>
+      </c>
+      <c r="C86" t="s">
+        <v>32</v>
+      </c>
+      <c r="D86" t="s">
+        <v>165</v>
+      </c>
+      <c r="E86" t="s">
+        <v>121</v>
+      </c>
+      <c r="F86" s="3">
+        <v>8000000</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A87" t="s">
+        <v>6</v>
+      </c>
+      <c r="B87" t="s">
+        <v>4</v>
+      </c>
+      <c r="C87" t="s">
+        <v>7</v>
+      </c>
+      <c r="D87" t="s">
+        <v>166</v>
+      </c>
+      <c r="E87" t="s">
         <v>123</v>
       </c>
-      <c r="E61" t="s">
-        <v>122</v>
-      </c>
-      <c r="F61" s="3">
+      <c r="F87" s="3">
+        <v>7840206</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A88" t="s">
+        <v>16</v>
+      </c>
+      <c r="B88" t="s">
+        <v>14</v>
+      </c>
+      <c r="C88" t="s">
+        <v>17</v>
+      </c>
+      <c r="D88" t="s">
+        <v>168</v>
+      </c>
+      <c r="E88" t="s">
+        <v>167</v>
+      </c>
+      <c r="F88" s="3">
+        <v>8166667</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A89" t="s">
+        <v>11</v>
+      </c>
+      <c r="B89" t="s">
+        <v>9</v>
+      </c>
+      <c r="C89" t="s">
+        <v>12</v>
+      </c>
+      <c r="D89" t="s">
+        <v>170</v>
+      </c>
+      <c r="E89" t="s">
+        <v>169</v>
+      </c>
+      <c r="F89" s="3">
+        <v>586000</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A90" t="s">
+        <v>31</v>
+      </c>
+      <c r="B90" t="s">
+        <v>29</v>
+      </c>
+      <c r="C90" t="s">
+        <v>32</v>
+      </c>
+      <c r="D90" t="s">
+        <v>172</v>
+      </c>
+      <c r="E90" t="s">
+        <v>171</v>
+      </c>
+      <c r="F90" s="3">
+        <v>586000</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A91" t="s">
+        <v>21</v>
+      </c>
+      <c r="B91" t="s">
+        <v>19</v>
+      </c>
+      <c r="C91" t="s">
+        <v>22</v>
+      </c>
+      <c r="D91" t="s">
+        <v>174</v>
+      </c>
+      <c r="E91" t="s">
+        <v>173</v>
+      </c>
+      <c r="F91" s="3">
+        <v>585000</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A92" t="s">
+        <v>16</v>
+      </c>
+      <c r="B92" t="s">
+        <v>14</v>
+      </c>
+      <c r="C92" t="s">
+        <v>17</v>
+      </c>
+      <c r="D92" t="s">
+        <v>175</v>
+      </c>
+      <c r="E92" t="s">
+        <v>72</v>
+      </c>
+      <c r="F92" s="3">
+        <v>10000000</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A93" t="s">
+        <v>21</v>
+      </c>
+      <c r="B93" t="s">
+        <v>19</v>
+      </c>
+      <c r="C93" t="s">
+        <v>22</v>
+      </c>
+      <c r="D93" t="s">
+        <v>177</v>
+      </c>
+      <c r="E93" t="s">
+        <v>176</v>
+      </c>
+      <c r="F93" s="3">
+        <v>5750000</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A94" t="s">
+        <v>31</v>
+      </c>
+      <c r="B94" t="s">
+        <v>29</v>
+      </c>
+      <c r="C94" t="s">
+        <v>32</v>
+      </c>
+      <c r="D94" t="s">
+        <v>178</v>
+      </c>
+      <c r="E94" t="s">
+        <v>121</v>
+      </c>
+      <c r="F94" s="3">
+        <v>8000000</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A95" t="s">
+        <v>6</v>
+      </c>
+      <c r="B95" t="s">
+        <v>4</v>
+      </c>
+      <c r="C95" t="s">
+        <v>7</v>
+      </c>
+      <c r="D95" t="s">
+        <v>179</v>
+      </c>
+      <c r="E95" t="s">
+        <v>123</v>
+      </c>
+      <c r="F95" s="3">
+        <v>7840206</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A96" t="s">
+        <v>21</v>
+      </c>
+      <c r="B96" t="s">
+        <v>19</v>
+      </c>
+      <c r="C96" t="s">
+        <v>22</v>
+      </c>
+      <c r="D96" t="s">
+        <v>181</v>
+      </c>
+      <c r="E96" t="s">
+        <v>180</v>
+      </c>
+      <c r="F96" s="3">
+        <v>2945035</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A97" t="s">
+        <v>26</v>
+      </c>
+      <c r="B97" t="s">
+        <v>24</v>
+      </c>
+      <c r="C97" t="s">
+        <v>27</v>
+      </c>
+      <c r="D97" t="s">
+        <v>183</v>
+      </c>
+      <c r="E97" t="s">
+        <v>182</v>
+      </c>
+      <c r="F97" s="3">
+        <v>588333</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A98" t="s">
+        <v>11</v>
+      </c>
+      <c r="B98" t="s">
+        <v>9</v>
+      </c>
+      <c r="C98" t="s">
+        <v>12</v>
+      </c>
+      <c r="D98" t="s">
+        <v>185</v>
+      </c>
+      <c r="E98" t="s">
+        <v>184</v>
+      </c>
+      <c r="F98" s="3">
+        <v>585667</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A99" t="s">
+        <v>21</v>
+      </c>
+      <c r="B99" t="s">
+        <v>19</v>
+      </c>
+      <c r="C99" t="s">
+        <v>22</v>
+      </c>
+      <c r="D99" t="s">
+        <v>187</v>
+      </c>
+      <c r="E99" t="s">
+        <v>186</v>
+      </c>
+      <c r="F99" s="3">
+        <v>5650000</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A100" t="s">
+        <v>21</v>
+      </c>
+      <c r="B100" t="s">
+        <v>19</v>
+      </c>
+      <c r="C100" t="s">
+        <v>22</v>
+      </c>
+      <c r="D100" t="s">
+        <v>189</v>
+      </c>
+      <c r="E100" t="s">
+        <v>188</v>
+      </c>
+      <c r="F100" s="3">
+        <v>4955307</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A101" t="s">
+        <v>26</v>
+      </c>
+      <c r="B101" t="s">
+        <v>24</v>
+      </c>
+      <c r="C101" t="s">
+        <v>27</v>
+      </c>
+      <c r="D101" t="s">
+        <v>191</v>
+      </c>
+      <c r="E101" t="s">
+        <v>190</v>
+      </c>
+      <c r="F101" s="3">
         <v>9250000</v>
       </c>
     </row>
+    <row r="102">
+      <c r="A102" t="s">
+        <v>11</v>
+      </c>
+      <c r="B102" t="s">
+        <v>9</v>
+      </c>
+      <c r="C102" t="s">
+        <v>12</v>
+      </c>
+      <c r="D102" t="s">
+        <v>195</v>
+      </c>
+      <c r="E102" t="s">
+        <v>196</v>
+      </c>
+      <c r="F102" t="n">
+        <v>3213.0</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="s">
+        <v>31</v>
+      </c>
+      <c r="B103" t="s">
+        <v>29</v>
+      </c>
+      <c r="C103" t="s">
+        <v>32</v>
+      </c>
+      <c r="D103" t="s">
+        <v>196</v>
+      </c>
+      <c r="E103" t="s">
+        <v>196</v>
+      </c>
+      <c r="F103" t="n">
+        <v>213.0</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="s">
+        <v>31</v>
+      </c>
+      <c r="B104" t="s">
+        <v>29</v>
+      </c>
+      <c r="C104" t="s">
+        <v>32</v>
+      </c>
+      <c r="D104" t="s">
+        <v>196</v>
+      </c>
+      <c r="E104" t="s">
+        <v>196</v>
+      </c>
+      <c r="F104" t="n">
+        <v>213.0</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="s">
+        <v>31</v>
+      </c>
+      <c r="B105" t="s">
+        <v>29</v>
+      </c>
+      <c r="C105" t="s">
+        <v>32</v>
+      </c>
+      <c r="D105" t="s">
+        <v>196</v>
+      </c>
+      <c r="E105" t="s">
+        <v>197</v>
+      </c>
+      <c r="F105" t="n">
+        <v>2415215.0</v>
+      </c>
+    </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/out/production/finalProject/Project/Data.xlsx
+++ b/out/production/finalProject/Project/Data.xlsx
@@ -1,19 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" mc:Ignorable="x15 xr xr6 xr10 xr2">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10409"/>
   <workbookPr/>
-  <mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ricardo/MEU/Programming Paradigms/finalProject/Project/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr documentId="13_ncr:1_{F4479CBB-BF22-8249-9754-7428081E10B4}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFACA1F5-D5C8-1C43-B38D-1F774B448A2E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowHeight="19520" windowWidth="16800" xWindow="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}" yWindow="500"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="16800" windowHeight="19520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" r:id="rId1" sheetId="1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="526" uniqueCount="198">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="506" uniqueCount="195">
   <si>
     <t>player_id</t>
   </si>
@@ -618,15 +618,6 @@
   </si>
   <si>
     <t>salary</t>
-  </si>
-  <si>
-    <t>tet</t>
-  </si>
-  <si>
-    <t>te</t>
-  </si>
-  <si>
-    <t>te23</t>
   </si>
 </sst>
 </file>
@@ -690,23 +681,23 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="4">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="6" xfId="0"/>
+    <xf numFmtId="6" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -723,10 +714,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr lastClr="000000" val="windowText"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr lastClr="FFFFFF" val="window"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -882,7 +873,7 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="9525">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="95000"/>
@@ -891,13 +882,13 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="25400">
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="38100">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -907,7 +898,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dir="5400000" dist="20000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -916,7 +907,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dir="5400000" dist="23000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -925,7 +916,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dir="5400000" dist="23000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -935,12 +926,12 @@
             <a:camera prst="orthographicFront">
               <a:rot lat="0" lon="0" rev="0"/>
             </a:camera>
-            <a:lightRig dir="t" rig="threePt">
+            <a:lightRig rig="threePt" dir="t">
               <a:rot lat="0" lon="0" rev="1200000"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
-            <a:bevelT h="25400" w="63500"/>
+            <a:bevelT w="63500" h="25400"/>
           </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
@@ -971,7 +962,7 @@
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
-            <a:fillToRect b="180000" l="50000" r="50000" t="-80000"/>
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
           </a:path>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
@@ -990,7 +981,7 @@
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
-            <a:fillToRect b="50000" l="50000" r="50000" t="50000"/>
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
           </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
@@ -1002,21 +993,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G105"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:F101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A95" workbookViewId="0" zoomScale="200">
-      <selection activeCell="A102" sqref="A102:F102"/>
+    <sheetView tabSelected="1" topLeftCell="A95" zoomScale="200" workbookViewId="0">
+      <selection activeCell="E111" sqref="E111"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="7.5" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="10.33203125" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="10.6640625" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="8.33203125" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="16.33203125" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="11.83203125" collapsed="true"/>
+    <col min="1" max="1" width="7.5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="10.33203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="10.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="8.33203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="16.33203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="11.83203125" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
@@ -3039,87 +3030,7 @@
         <v>9250000</v>
       </c>
     </row>
-    <row r="102">
-      <c r="A102" t="s">
-        <v>11</v>
-      </c>
-      <c r="B102" t="s">
-        <v>9</v>
-      </c>
-      <c r="C102" t="s">
-        <v>12</v>
-      </c>
-      <c r="D102" t="s">
-        <v>195</v>
-      </c>
-      <c r="E102" t="s">
-        <v>196</v>
-      </c>
-      <c r="F102" t="n">
-        <v>3213.0</v>
-      </c>
-    </row>
-    <row r="103">
-      <c r="A103" t="s">
-        <v>31</v>
-      </c>
-      <c r="B103" t="s">
-        <v>29</v>
-      </c>
-      <c r="C103" t="s">
-        <v>32</v>
-      </c>
-      <c r="D103" t="s">
-        <v>196</v>
-      </c>
-      <c r="E103" t="s">
-        <v>196</v>
-      </c>
-      <c r="F103" t="n">
-        <v>213.0</v>
-      </c>
-    </row>
-    <row r="104">
-      <c r="A104" t="s">
-        <v>31</v>
-      </c>
-      <c r="B104" t="s">
-        <v>29</v>
-      </c>
-      <c r="C104" t="s">
-        <v>32</v>
-      </c>
-      <c r="D104" t="s">
-        <v>196</v>
-      </c>
-      <c r="E104" t="s">
-        <v>196</v>
-      </c>
-      <c r="F104" t="n">
-        <v>213.0</v>
-      </c>
-    </row>
-    <row r="105">
-      <c r="A105" t="s">
-        <v>31</v>
-      </c>
-      <c r="B105" t="s">
-        <v>29</v>
-      </c>
-      <c r="C105" t="s">
-        <v>32</v>
-      </c>
-      <c r="D105" t="s">
-        <v>196</v>
-      </c>
-      <c r="E105" t="s">
-        <v>197</v>
-      </c>
-      <c r="F105" t="n">
-        <v>2415215.0</v>
-      </c>
-    </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/out/production/finalProject/Project/Data.xlsx
+++ b/out/production/finalProject/Project/Data.xlsx
@@ -1,19 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10409"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ricardo/MEU/Programming Paradigms/finalProject/Project/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFACA1F5-D5C8-1C43-B38D-1F774B448A2E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr documentId="13_ncr:1_{25623F0E-AD08-3943-9BD9-C542E5089E88}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="16800" windowHeight="19520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowHeight="19520" windowWidth="16800" xWindow="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}" yWindow="500"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" r:id="rId1" sheetId="1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="506" uniqueCount="195">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="511" uniqueCount="197">
   <si>
     <t>player_id</t>
   </si>
@@ -618,6 +618,12 @@
   </si>
   <si>
     <t>salary</t>
+  </si>
+  <si>
+    <t>te</t>
+  </si>
+  <si>
+    <t>ts</t>
   </si>
 </sst>
 </file>
@@ -681,23 +687,23 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="4">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="6" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="6" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -714,10 +720,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -873,7 +879,7 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="9525">
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="95000"/>
@@ -882,13 +888,13 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="25400">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="38100">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -898,7 +904,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dir="5400000" dist="20000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -907,7 +913,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dir="5400000" dist="23000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -916,7 +922,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dir="5400000" dist="23000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -926,12 +932,12 @@
             <a:camera prst="orthographicFront">
               <a:rot lat="0" lon="0" rev="0"/>
             </a:camera>
-            <a:lightRig rig="threePt" dir="t">
+            <a:lightRig dir="t" rig="threePt">
               <a:rot lat="0" lon="0" rev="1200000"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
-            <a:bevelT w="63500" h="25400"/>
+            <a:bevelT h="25400" w="63500"/>
           </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
@@ -962,7 +968,7 @@
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
-            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+            <a:fillToRect b="180000" l="50000" r="50000" t="-80000"/>
           </a:path>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
@@ -981,7 +987,7 @@
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
-            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+            <a:fillToRect b="50000" l="50000" r="50000" t="50000"/>
           </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
@@ -993,21 +999,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F101"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:G101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A95" zoomScale="200" workbookViewId="0">
-      <selection activeCell="E111" sqref="E111"/>
+    <sheetView tabSelected="1" topLeftCell="A92" workbookViewId="0" zoomScale="200">
+      <selection activeCell="B104" sqref="B104"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="7.5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="10.33203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="10.6640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="8.33203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="16.33203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="11.83203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="7.5" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="10.33203125" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="10.6640625" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="8.33203125" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="16.33203125" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="11.83203125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
@@ -3031,6 +3037,6 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/out/production/finalProject/Project/Data.xlsx
+++ b/out/production/finalProject/Project/Data.xlsx
@@ -1096,26 +1096,6 @@
         <v>11250000</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>21</v>
-      </c>
-      <c r="B5" t="s">
-        <v>19</v>
-      </c>
-      <c r="C5" t="s">
-        <v>22</v>
-      </c>
-      <c r="D5" t="s">
-        <v>20</v>
-      </c>
-      <c r="E5" t="s">
-        <v>18</v>
-      </c>
-      <c r="F5" s="3">
-        <v>9500000</v>
-      </c>
-    </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>26</v>
@@ -1276,26 +1256,6 @@
         <v>21000000</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>21</v>
-      </c>
-      <c r="B14" t="s">
-        <v>19</v>
-      </c>
-      <c r="C14" t="s">
-        <v>22</v>
-      </c>
-      <c r="D14" t="s">
-        <v>45</v>
-      </c>
-      <c r="E14" t="s">
-        <v>44</v>
-      </c>
-      <c r="F14" s="3">
-        <v>18000000</v>
-      </c>
-    </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>16</v>
@@ -1396,26 +1356,6 @@
         <v>17100000</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
-        <v>21</v>
-      </c>
-      <c r="B20" t="s">
-        <v>19</v>
-      </c>
-      <c r="C20" t="s">
-        <v>22</v>
-      </c>
-      <c r="D20" t="s">
-        <v>55</v>
-      </c>
-      <c r="E20" t="s">
-        <v>54</v>
-      </c>
-      <c r="F20" s="3">
-        <v>3400000</v>
-      </c>
-    </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>31</v>
@@ -1556,26 +1496,6 @@
         <v>1666667</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A28" t="s">
-        <v>21</v>
-      </c>
-      <c r="B28" t="s">
-        <v>19</v>
-      </c>
-      <c r="C28" t="s">
-        <v>22</v>
-      </c>
-      <c r="D28" t="s">
-        <v>68</v>
-      </c>
-      <c r="E28" t="s">
-        <v>44</v>
-      </c>
-      <c r="F28" s="3">
-        <v>18000000</v>
-      </c>
-    </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>31</v>
@@ -1616,26 +1536,6 @@
         <v>19083333</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A31" t="s">
-        <v>21</v>
-      </c>
-      <c r="B31" t="s">
-        <v>19</v>
-      </c>
-      <c r="C31" t="s">
-        <v>22</v>
-      </c>
-      <c r="D31" t="s">
-        <v>71</v>
-      </c>
-      <c r="E31" t="s">
-        <v>44</v>
-      </c>
-      <c r="F31" s="3">
-        <v>18000000</v>
-      </c>
-    </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>16</v>
@@ -1656,26 +1556,6 @@
         <v>10000000</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A33" t="s">
-        <v>21</v>
-      </c>
-      <c r="B33" t="s">
-        <v>19</v>
-      </c>
-      <c r="C33" t="s">
-        <v>22</v>
-      </c>
-      <c r="D33" t="s">
-        <v>75</v>
-      </c>
-      <c r="E33" t="s">
-        <v>74</v>
-      </c>
-      <c r="F33" s="3">
-        <v>9250000</v>
-      </c>
-    </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>16</v>
@@ -2096,26 +1976,6 @@
         <v>10000000</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A55" t="s">
-        <v>21</v>
-      </c>
-      <c r="B55" t="s">
-        <v>19</v>
-      </c>
-      <c r="C55" t="s">
-        <v>22</v>
-      </c>
-      <c r="D55" t="s">
-        <v>112</v>
-      </c>
-      <c r="E55" t="s">
-        <v>74</v>
-      </c>
-      <c r="F55" s="3">
-        <v>9250000</v>
-      </c>
-    </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>26</v>
@@ -2816,26 +2676,6 @@
         <v>586000</v>
       </c>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A91" t="s">
-        <v>21</v>
-      </c>
-      <c r="B91" t="s">
-        <v>19</v>
-      </c>
-      <c r="C91" t="s">
-        <v>22</v>
-      </c>
-      <c r="D91" t="s">
-        <v>174</v>
-      </c>
-      <c r="E91" t="s">
-        <v>173</v>
-      </c>
-      <c r="F91" s="3">
-        <v>585000</v>
-      </c>
-    </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>16</v>
@@ -2856,26 +2696,6 @@
         <v>10000000</v>
       </c>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A93" t="s">
-        <v>21</v>
-      </c>
-      <c r="B93" t="s">
-        <v>19</v>
-      </c>
-      <c r="C93" t="s">
-        <v>22</v>
-      </c>
-      <c r="D93" t="s">
-        <v>177</v>
-      </c>
-      <c r="E93" t="s">
-        <v>176</v>
-      </c>
-      <c r="F93" s="3">
-        <v>5750000</v>
-      </c>
-    </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>31</v>
@@ -2916,26 +2736,6 @@
         <v>7840206</v>
       </c>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A96" t="s">
-        <v>21</v>
-      </c>
-      <c r="B96" t="s">
-        <v>19</v>
-      </c>
-      <c r="C96" t="s">
-        <v>22</v>
-      </c>
-      <c r="D96" t="s">
-        <v>181</v>
-      </c>
-      <c r="E96" t="s">
-        <v>180</v>
-      </c>
-      <c r="F96" s="3">
-        <v>2945035</v>
-      </c>
-    </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>26</v>
@@ -2974,46 +2774,6 @@
       </c>
       <c r="F98" s="3">
         <v>585667</v>
-      </c>
-    </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A99" t="s">
-        <v>21</v>
-      </c>
-      <c r="B99" t="s">
-        <v>19</v>
-      </c>
-      <c r="C99" t="s">
-        <v>22</v>
-      </c>
-      <c r="D99" t="s">
-        <v>187</v>
-      </c>
-      <c r="E99" t="s">
-        <v>186</v>
-      </c>
-      <c r="F99" s="3">
-        <v>5650000</v>
-      </c>
-    </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A100" t="s">
-        <v>21</v>
-      </c>
-      <c r="B100" t="s">
-        <v>19</v>
-      </c>
-      <c r="C100" t="s">
-        <v>22</v>
-      </c>
-      <c r="D100" t="s">
-        <v>189</v>
-      </c>
-      <c r="E100" t="s">
-        <v>188</v>
-      </c>
-      <c r="F100" s="3">
-        <v>4955307</v>
       </c>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.2">
